--- a/Data/Input/Daily/Fields to be added on UI by Huphin_Daily_26-02-2023.xlsx
+++ b/Data/Input/Daily/Fields to be added on UI by Huphin_Daily_26-02-2023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Finance Laptop\Documents\UiPath\DO and Invoice Process Automation_bot 2\Data\Input\Daily\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D816BC5-B248-4DF6-9E91-C4B63A258750}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BD5CF66-27B0-45F0-92C6-A822680F22A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="5040" windowWidth="7500" windowHeight="3000" tabRatio="678" firstSheet="2" activeTab="2" xr2:uid="{1A73FDFA-0A4F-44AD-AEF3-68F0BEA705B7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" tabRatio="678" firstSheet="2" activeTab="2" xr2:uid="{1A73FDFA-0A4F-44AD-AEF3-68F0BEA705B7}"/>
   </bookViews>
   <sheets>
     <sheet name="MonthlyCust (2)" sheetId="13" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1074" uniqueCount="538">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1091" uniqueCount="549">
   <si>
     <t>HC40T</t>
   </si>
@@ -1861,12 +1861,45 @@
   <si>
     <t>Success</t>
   </si>
+  <si>
+    <t>M:\2. Sales Department\Unipath\Delivery Orders\Daily\DOPDFs_15-03-2023\HupHin-DeliveryOrder-DO230114019-2023-03-16.pdf</t>
+  </si>
+  <si>
+    <t>Not Available</t>
+  </si>
+  <si>
+    <t>17/01/2023 00:00</t>
+  </si>
+  <si>
+    <t>16/01/2023 08:00</t>
+  </si>
+  <si>
+    <t>CHANGI ROAD EAST T301</t>
+  </si>
+  <si>
+    <t>XD4061S</t>
+  </si>
+  <si>
+    <t>Lorry Crane</t>
+  </si>
+  <si>
+    <t>DO230114019</t>
+  </si>
+  <si>
+    <t>W/O 2332</t>
+  </si>
+  <si>
+    <t>M:\2. Sales Department\Unipath\Quotations\HH-Q10609R4-18-AO.xlsx</t>
+  </si>
+  <si>
+    <t>HH-Q10609R4-18-AO</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1929,6 +1962,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1969,7 +2008,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -2009,6 +2048,8 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="60% - Accent1" xfId="1" builtinId="32"/>
@@ -2919,8 +2960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD80626F-4EE6-4A1B-BAC6-4FE9B121A377}">
   <dimension ref="A1:AK9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="X2" sqref="X2:Z6"/>
+    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="S7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3348,9 +3389,61 @@
         <v>537</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
+    <row r="7" spans="1:37" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="21" t="s">
+        <v>548</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>547</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>546</v>
+      </c>
+      <c r="H7" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" s="21" t="s">
+        <v>521</v>
+      </c>
+      <c r="J7" s="21" t="s">
+        <v>545</v>
+      </c>
+      <c r="K7" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="L7" s="21" t="s">
+        <v>544</v>
+      </c>
+      <c r="M7" s="21" t="s">
+        <v>543</v>
+      </c>
+      <c r="N7" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="O7" s="21" t="s">
+        <v>542</v>
+      </c>
+      <c r="P7" s="22" t="s">
+        <v>541</v>
+      </c>
+      <c r="Q7" s="22" t="s">
+        <v>540</v>
+      </c>
+      <c r="R7" s="21" t="s">
+        <v>539</v>
+      </c>
+      <c r="S7" s="21" t="s">
+        <v>539</v>
+      </c>
+      <c r="T7" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="U7" s="21" t="s">
+        <v>538</v>
+      </c>
+      <c r="W7" s="21" t="s">
+        <v>537</v>
+      </c>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.3">
       <c r="I8" s="15"/>
